--- a/OneApprovalRate.xlsx
+++ b/OneApprovalRate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-yiwzho.REDMOND\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PowerBi\powerbi-visuals-circlecard-react\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A86915-E971-44F6-8E8B-30526C1FA52A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3419B8-6226-44FA-9FC2-457F5AA15EBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5772" yWindow="12" windowWidth="20808" windowHeight="15120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15630" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OneApprovalRate" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="37">
   <si>
     <t>FiscalYear</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>ToolTip</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>USA</t>
   </si>
 </sst>
 </file>
@@ -617,48 +626,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -674,7 +683,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1771,10 +1780,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F159D4-2D3A-436A-8EB0-FECF171C71C0}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1784,7 +1793,7 @@
     <col min="5" max="5" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1800,8 +1809,11 @@
       <c r="E1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1817,8 +1829,11 @@
       <c r="E2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1834,8 +1849,11 @@
       <c r="E3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1851,8 +1869,11 @@
       <c r="E4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1868,8 +1889,11 @@
       <c r="E5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1885,8 +1909,11 @@
       <c r="E6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1902,8 +1929,11 @@
       <c r="E7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1919,8 +1949,11 @@
       <c r="E8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1936,8 +1969,11 @@
       <c r="E9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1953,8 +1989,11 @@
       <c r="E10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1970,8 +2009,11 @@
       <c r="E11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1987,8 +2029,11 @@
       <c r="E12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2004,8 +2049,11 @@
       <c r="E13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2021,8 +2069,11 @@
       <c r="E14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2038,8 +2089,11 @@
       <c r="E15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2055,8 +2109,11 @@
       <c r="E16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2072,8 +2129,11 @@
       <c r="E17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -2089,8 +2149,11 @@
       <c r="E18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
@@ -2106,8 +2169,11 @@
       <c r="E19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>7</v>
       </c>
@@ -2123,264 +2189,148 @@
       <c r="E20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="D21">
+        <v>0.94173799999999996</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="D22">
+        <v>0.94089100000000003</v>
       </c>
       <c r="E22" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23">
+        <v>0.93794599999999995</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>0.93868700000000005</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>0.93776099999999996</v>
+      </c>
+      <c r="E25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
         <v>11</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
       </c>
       <c r="D26">
-        <v>0.94173799999999996</v>
+        <v>0.93766700000000003</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
       </c>
       <c r="D27">
-        <v>0.94089100000000003</v>
+        <v>0.93937099999999996</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>3</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28">
-        <v>0.93794599999999995</v>
-      </c>
-      <c r="E28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29">
-        <v>0.93868700000000005</v>
-      </c>
-      <c r="E29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>5</v>
-      </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30">
-        <v>0.93776099999999996</v>
-      </c>
-      <c r="E30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>6</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31">
-        <v>0.93766700000000003</v>
-      </c>
-      <c r="E31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>7</v>
-      </c>
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32">
-        <v>0.93937099999999996</v>
-      </c>
-      <c r="E32" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>9</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>10</v>
-      </c>
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>11</v>
-      </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>12</v>
-      </c>
-      <c r="B37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" t="s">
-        <v>29</v>
+      <c r="F27" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/OneApprovalRate.xlsx
+++ b/OneApprovalRate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PowerBi\powerbi-visuals-circlecard-react\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3419B8-6226-44FA-9FC2-457F5AA15EBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D01DC82-3B14-45D4-AF54-D9D5B21D97CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15630" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="37">
   <si>
     <t>FiscalYear</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Catgory</t>
   </si>
   <si>
-    <t>FY21WO</t>
-  </si>
-  <si>
     <t>ApprovalRate</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>USA</t>
+  </si>
+  <si>
+    <t>Korean</t>
   </si>
 </sst>
 </file>
@@ -1780,10 +1780,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F159D4-2D3A-436A-8EB0-FECF171C71C0}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1804,13 +1804,13 @@
         <v>30</v>
       </c>
       <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1830,7 +1830,7 @@
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1850,7 +1850,7 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1870,7 +1870,7 @@
         <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1890,7 +1890,7 @@
         <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1910,7 +1910,7 @@
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1930,7 +1930,7 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1950,7 +1950,7 @@
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1970,7 +1970,7 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1990,7 +1990,7 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2010,7 +2010,7 @@
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2030,7 +2030,7 @@
         <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2050,7 +2050,7 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2150,7 +2150,7 @@
         <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2170,7 +2170,7 @@
         <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2190,24 +2190,24 @@
         <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>0.94173799999999996</v>
+        <v>0.94374682600000004</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
         <v>35</v>
@@ -2215,16 +2215,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>0.94089100000000003</v>
+        <v>0.94390518400000001</v>
       </c>
       <c r="E22" t="s">
         <v>29</v>
@@ -2235,19 +2235,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>0.93794599999999995</v>
+        <v>0.94196315500000005</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F23" t="s">
         <v>35</v>
@@ -2255,85 +2255,526 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>0.93868700000000005</v>
+        <v>0.94372858000000004</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>0.93776099999999996</v>
+        <v>0.94409843000000004</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>0.93766700000000003</v>
+        <v>0.93526524600000005</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>0.937466625</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>0.94042563499999998</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29">
+        <v>0.948430149</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <v>0.94753101500000003</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>0.94448199799999999</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
         <v>12</v>
       </c>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27">
-        <v>0.93937099999999996</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>0.92931849399999999</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <v>0.930398324</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34">
+        <v>0.93617825899999996</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35">
+        <v>0.93682382099999995</v>
+      </c>
+      <c r="E35" t="s">
         <v>27</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36">
+        <v>0.936019665</v>
+      </c>
+      <c r="E36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37">
+        <v>0.93768031600000001</v>
+      </c>
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38">
+        <v>0.944689263</v>
+      </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" t="s">
         <v>36</v>
       </c>
     </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39">
+        <v>0.94836442600000004</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40">
+        <v>0.94374682600000004</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41">
+        <v>0.94390518400000001</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42">
+        <v>0.94196315500000005</v>
+      </c>
+      <c r="E42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43">
+        <v>0.94374682600000004</v>
+      </c>
+      <c r="E43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44">
+        <v>0.94390518400000001</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45">
+        <v>0.94196315500000005</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46">
+        <v>0.94372858000000004</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47">
+        <v>0.94409843000000004</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48">
+        <v>0.94372858000000004</v>
+      </c>
+      <c r="E48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49">
+        <v>0.94409843000000004</v>
+      </c>
+      <c r="E49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>